--- a/data/GOZO_status_all.xlsx
+++ b/data/GOZO_status_all.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/KAHI/participant_1_data/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GOZO/participant_3_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8880C40D-02A8-8943-924C-BE408EEE7A60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9160CB24-C2C1-DB49-9480-D441A9796A94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30560" yWindow="3640" windowWidth="28800" windowHeight="16420" xr2:uid="{3C916DE0-195B-2A4F-AB3E-F4618B8BB61D}"/>
   </bookViews>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D24135B-7C4E-9B44-8B3B-A592D6651794}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -411,23 +411,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/data/GOZO_status_all.xlsx
+++ b/data/GOZO_status_all.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GOZO/participant_3_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9160CB24-C2C1-DB49-9480-D441A9796A94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEE05ED-0B56-0A46-8CB3-AC9251272F75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30560" yWindow="3640" windowWidth="28800" windowHeight="16420" xr2:uid="{3C916DE0-195B-2A4F-AB3E-F4618B8BB61D}"/>
   </bookViews>
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D24135B-7C4E-9B44-8B3B-A592D6651794}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -411,7 +411,15 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>60</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/data/GOZO_status_all.xlsx
+++ b/data/GOZO_status_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GOZO/participant_3_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEE05ED-0B56-0A46-8CB3-AC9251272F75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443F0DEC-F763-0443-AA1E-1E9C5CE27EB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30560" yWindow="3640" windowWidth="28800" windowHeight="16420" xr2:uid="{3C916DE0-195B-2A4F-AB3E-F4618B8BB61D}"/>
+    <workbookView xWindow="32900" yWindow="4420" windowWidth="28800" windowHeight="16420" xr2:uid="{3C916DE0-195B-2A4F-AB3E-F4618B8BB61D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D24135B-7C4E-9B44-8B3B-A592D6651794}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -422,6 +422,14 @@
         <v>26</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/GOZO_status_all.xlsx
+++ b/data/GOZO_status_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GOZO/participant_3_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443F0DEC-F763-0443-AA1E-1E9C5CE27EB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95207857-A86B-0648-A731-14752E5B9F8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32900" yWindow="4420" windowWidth="28800" windowHeight="16420" xr2:uid="{3C916DE0-195B-2A4F-AB3E-F4618B8BB61D}"/>
   </bookViews>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D24135B-7C4E-9B44-8B3B-A592D6651794}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -430,6 +430,14 @@
         <v>36</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/GOZO_status_all.xlsx
+++ b/data/GOZO_status_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GOZO/participant_3_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95207857-A86B-0648-A731-14752E5B9F8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E6DD3D-42A0-BD48-A4CC-20360B14FE3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32900" yWindow="4420" windowWidth="28800" windowHeight="16420" xr2:uid="{3C916DE0-195B-2A4F-AB3E-F4618B8BB61D}"/>
   </bookViews>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D24135B-7C4E-9B44-8B3B-A592D6651794}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -438,6 +438,14 @@
         <v>46</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/GOZO_status_all.xlsx
+++ b/data/GOZO_status_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GOZO/participant_3_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E6DD3D-42A0-BD48-A4CC-20360B14FE3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A0F288-1BDA-6348-9C15-3112A9780CE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32900" yWindow="4420" windowWidth="28800" windowHeight="16420" xr2:uid="{3C916DE0-195B-2A4F-AB3E-F4618B8BB61D}"/>
   </bookViews>
@@ -393,7 +393,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -443,7 +443,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/data/GOZO_status_all.xlsx
+++ b/data/GOZO_status_all.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GOZO/participant_3_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A0F288-1BDA-6348-9C15-3112A9780CE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5D8502-7B1F-A047-BED5-0A801E91459D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32900" yWindow="4420" windowWidth="28800" windowHeight="16420" xr2:uid="{3C916DE0-195B-2A4F-AB3E-F4618B8BB61D}"/>
   </bookViews>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D24135B-7C4E-9B44-8B3B-A592D6651794}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -446,6 +446,14 @@
         <v>63</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/GOZO_status_all.xlsx
+++ b/data/GOZO_status_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GOZO/participant_3_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5D8502-7B1F-A047-BED5-0A801E91459D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004C66BF-8079-7841-A660-35C4362480ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32900" yWindow="4420" windowWidth="28800" windowHeight="16420" xr2:uid="{3C916DE0-195B-2A4F-AB3E-F4618B8BB61D}"/>
   </bookViews>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D24135B-7C4E-9B44-8B3B-A592D6651794}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -454,6 +454,14 @@
         <v>89</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/GOZO_status_all.xlsx
+++ b/data/GOZO_status_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GOZO/participant_3_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004C66BF-8079-7841-A660-35C4362480ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C6D920-0835-B94A-82B8-5E884C332865}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32900" yWindow="4420" windowWidth="28800" windowHeight="16420" xr2:uid="{3C916DE0-195B-2A4F-AB3E-F4618B8BB61D}"/>
   </bookViews>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D24135B-7C4E-9B44-8B3B-A592D6651794}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -462,6 +462,14 @@
         <v>63</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>69.569999999999993</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/GOZO_status_all.xlsx
+++ b/data/GOZO_status_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GOZO/participant_3_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C6D920-0835-B94A-82B8-5E884C332865}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B47BFB7-CE1F-DB49-9839-3045DCCD08F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32900" yWindow="4420" windowWidth="28800" windowHeight="16420" xr2:uid="{3C916DE0-195B-2A4F-AB3E-F4618B8BB61D}"/>
   </bookViews>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D24135B-7C4E-9B44-8B3B-A592D6651794}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -470,6 +470,14 @@
         <v>69.569999999999993</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/GOZO_status_all.xlsx
+++ b/data/GOZO_status_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GOZO/participant_3_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B47BFB7-CE1F-DB49-9839-3045DCCD08F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD7DE61-6B26-AC41-9CDF-98859F758E09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32900" yWindow="4420" windowWidth="28800" windowHeight="16420" xr2:uid="{3C916DE0-195B-2A4F-AB3E-F4618B8BB61D}"/>
   </bookViews>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D24135B-7C4E-9B44-8B3B-A592D6651794}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -478,6 +478,14 @@
         <v>70</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>69.56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/GOZO_status_all.xlsx
+++ b/data/GOZO_status_all.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GOZO/participant_3_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD7DE61-6B26-AC41-9CDF-98859F758E09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FEFBAE-52EE-1B48-8578-42E20E7F4D22}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32900" yWindow="4420" windowWidth="28800" windowHeight="16420" xr2:uid="{3C916DE0-195B-2A4F-AB3E-F4618B8BB61D}"/>
   </bookViews>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D24135B-7C4E-9B44-8B3B-A592D6651794}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -486,6 +486,14 @@
         <v>69.56</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/GOZO_status_all.xlsx
+++ b/data/GOZO_status_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GOZO/participant_3_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FEFBAE-52EE-1B48-8578-42E20E7F4D22}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7344036-E2E6-D246-94B1-FF178E38D44F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32900" yWindow="4420" windowWidth="28800" windowHeight="16420" xr2:uid="{3C916DE0-195B-2A4F-AB3E-F4618B8BB61D}"/>
+    <workbookView xWindow="32340" yWindow="4820" windowWidth="28800" windowHeight="16160" xr2:uid="{3C916DE0-195B-2A4F-AB3E-F4618B8BB61D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D24135B-7C4E-9B44-8B3B-A592D6651794}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -494,6 +494,14 @@
         <v>60</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>60.71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/GOZO_status_all.xlsx
+++ b/data/GOZO_status_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GOZO/participant_3_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7344036-E2E6-D246-94B1-FF178E38D44F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1D9F3F-3B35-7548-9D5B-626260D0A325}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32340" yWindow="4820" windowWidth="28800" windowHeight="16160" xr2:uid="{3C916DE0-195B-2A4F-AB3E-F4618B8BB61D}"/>
+    <workbookView xWindow="32120" yWindow="5020" windowWidth="28800" windowHeight="16160" xr2:uid="{3C916DE0-195B-2A4F-AB3E-F4618B8BB61D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D24135B-7C4E-9B44-8B3B-A592D6651794}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -419,7 +419,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>26</v>
+        <v>26.32</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -427,7 +427,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>36</v>
+        <v>35.71</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -435,7 +435,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>46</v>
+        <v>45.83</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -443,7 +443,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>63</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -451,7 +451,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>89</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -459,7 +459,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>63</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -483,7 +483,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>69.56</v>
+        <v>69.569999999999993</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -500,6 +500,14 @@
       </c>
       <c r="B13">
         <v>60.71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>62.5</v>
       </c>
     </row>
   </sheetData>
